--- a/Vergadering groep 4 5-10-17.xlsx
+++ b/Vergadering groep 4 5-10-17.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maart\Desktop\ObesiCodeDocs\ObesiCodeDocs\gekregen documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Barroc_IT_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,13 @@
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -229,80 +236,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -378,7 +386,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +424,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -699,16 +707,17 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
@@ -733,13 +742,13 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -754,13 +763,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -775,13 +784,13 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -796,11 +805,11 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -815,19 +824,19 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
@@ -844,19 +853,19 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="14">
         <v>42990.416666666664</v>
       </c>
       <c r="F7" s="3"/>
@@ -873,19 +882,19 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="14">
         <v>42991.708333333336</v>
       </c>
       <c r="F8" s="3"/>
@@ -902,230 +911,230 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>42991.416666666664</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>42992.5</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>42992.5</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>42999</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="26">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="26">
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="26">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="26">
         <v>16</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1164,18 +1173,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,17 +1237,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
